--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0664322697381574</v>
+        <v>0.06854349825647522</v>
       </c>
       <c r="H2" t="n">
-        <v>3.312591874365385</v>
+        <v>6.595883129145573</v>
       </c>
       <c r="I2" t="n">
-        <v>12.19265842255877</v>
+        <v>-2.145003858990287</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05779502542079024</v>
+        <v>0.06685146085328561</v>
       </c>
       <c r="H3" t="n">
-        <v>2.825243222399302</v>
+        <v>18.93787868357008</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02002562150701623</v>
+        <v>-0.01294739277674126</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.407995556624767</v>
+        <v>36.25619031462482</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01093656321235564</v>
+        <v>-0.00805072599712036</v>
       </c>
       <c r="H5" t="n">
-        <v>-4.328172751458719</v>
+        <v>29.57315274768672</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01697466760879338</v>
+        <v>-0.01860918511944517</v>
       </c>
       <c r="H6" t="n">
-        <v>51.64676066897752</v>
+        <v>-66.24906637884965</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01391834774459439</v>
+        <v>-0.007200376581823696</v>
       </c>
       <c r="H7" t="n">
-        <v>145.7449944183231</v>
+        <v>-27.1312181143994</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0139750955989984</v>
+        <v>-0.006208695976173156</v>
       </c>
       <c r="H8" t="n">
-        <v>145.6441414300149</v>
+        <v>-9.131975639318677</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.001977093951930926</v>
+        <v>0.004615173564844266</v>
       </c>
       <c r="H9" t="n">
-        <v>-64.00798619851442</v>
+        <v>184.0169433930521</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06190328482066547</v>
+        <v>-0.05921775018514164</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.77473610239534</v>
+        <v>6.03601802054687</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05988087207562604</v>
+        <v>-0.06954880205389437</v>
       </c>
       <c r="H11" t="n">
-        <v>-6.550099517607666</v>
+        <v>-8.537641576057208</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3811427268418128</v>
+        <v>-0.3777130478920371</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.411190572066327</v>
+        <v>4.280336388448042</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3996267625431409</v>
+        <v>-0.3974577424205049</v>
       </c>
       <c r="H13" t="n">
-        <v>1.914612291390871</v>
+        <v>-1.361459035477968</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01238489240225897</v>
+        <v>-0.02013216919123732</v>
       </c>
       <c r="H14" t="n">
-        <v>51.1410071038106</v>
+        <v>-145.6861333888471</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02474667815262496</v>
+        <v>-0.0140782835910078</v>
       </c>
       <c r="H15" t="n">
-        <v>-45.39408333909369</v>
+        <v>68.93491822385735</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1378069418557152</v>
+        <v>0.1421372740448495</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7731592178122492</v>
+        <v>3.939772229358073</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1442601801196667</v>
+        <v>0.1419450036003737</v>
       </c>
       <c r="H17" t="n">
-        <v>3.434085951434013</v>
+        <v>1.774111820730376</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1274869091934859</v>
+        <v>0.1214636032858463</v>
       </c>
       <c r="H18" t="n">
-        <v>8.344396122219324</v>
+        <v>3.225506305601552</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1333867655748232</v>
+        <v>0.1280493617729934</v>
       </c>
       <c r="H19" t="n">
-        <v>3.666710546963507</v>
+        <v>-0.4814603200043607</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08176962735960069</v>
+        <v>0.08583424832767612</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.849252455189642</v>
+        <v>-3.268604691598187</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08390981746134428</v>
+        <v>0.08750101757515669</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.65273895478383</v>
+        <v>0.4707629821675995</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.09464103061404261</v>
+        <v>-0.09776778619565953</v>
       </c>
       <c r="H22" t="n">
-        <v>1.238577184155729</v>
+        <v>-4.583302872704445</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1082685668982954</v>
+        <v>-0.09996788445127837</v>
       </c>
       <c r="H23" t="n">
-        <v>6.726351771773423</v>
+        <v>1.456092867198455</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1640981625061468</v>
+        <v>0.1622172585708786</v>
       </c>
       <c r="H24" t="n">
-        <v>1.866708798943456</v>
+        <v>0.6991058805038493</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1676584317493634</v>
+        <v>0.1686872436201788</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.721789976701559</v>
+        <v>-1.118719865288308</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08639182561792845</v>
+        <v>0.08861000624943989</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.701369687351482</v>
+        <v>-2.254499576005931</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08540898529658474</v>
+        <v>0.08724696713513973</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.6430313563067458</v>
+        <v>1.495107895281908</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1323093175078499</v>
+        <v>-0.128692396270753</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.87322141240602</v>
+        <v>6.501025662900731</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1357355564918611</v>
+        <v>-0.1427165399519818</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.90716437416754</v>
+        <v>-2.086394403784631</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04628553816697784</v>
+        <v>0.04987456996619302</v>
       </c>
       <c r="H30" t="n">
-        <v>-11.01548817689346</v>
+        <v>-4.115530755665511</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0494622854373314</v>
+        <v>0.04719338620083045</v>
       </c>
       <c r="H31" t="n">
-        <v>12.87758854843686</v>
+        <v>7.699747043314642</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1090259932404706</v>
+        <v>0.1126956322543052</v>
       </c>
       <c r="H32" t="n">
-        <v>0.296274081579829</v>
+        <v>3.672084834344359</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1174664537593924</v>
+        <v>0.1189988281279437</v>
       </c>
       <c r="H33" t="n">
-        <v>-5.341656310979765</v>
+        <v>-4.106818491361187</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01481574331932256</v>
+        <v>-0.008899927039406726</v>
       </c>
       <c r="H34" t="n">
-        <v>-5.126987897294009</v>
+        <v>43.00907706590569</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01181840130641855</v>
+        <v>-0.01336337996427005</v>
       </c>
       <c r="H35" t="n">
-        <v>-29.38879334018651</v>
+        <v>20.15803492658402</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03495640167349772</v>
+        <v>0.0332671601989017</v>
       </c>
       <c r="H36" t="n">
-        <v>-4.924286190781269</v>
+        <v>-9.518747614284074</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04024536306776347</v>
+        <v>0.03917196530920936</v>
       </c>
       <c r="H37" t="n">
-        <v>12.77744639905199</v>
+        <v>9.769520790917436</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1079148723342042</v>
+        <v>0.1056205784144961</v>
       </c>
       <c r="H38" t="n">
-        <v>7.589704642386849</v>
+        <v>5.30232385932141</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09988666790251942</v>
+        <v>0.09849587206358534</v>
       </c>
       <c r="H39" t="n">
-        <v>2.553031367213686</v>
+        <v>1.12510978077343</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02734862113926888</v>
+        <v>0.03085941075929714</v>
       </c>
       <c r="H40" t="n">
-        <v>-18.81699762524106</v>
+        <v>-8.395395724047278</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02667310908972661</v>
+        <v>0.03739420001845033</v>
       </c>
       <c r="H41" t="n">
-        <v>-17.21240036256495</v>
+        <v>16.06356234946749</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1204732063826657</v>
+        <v>0.1142063130845872</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.3574894039217164</v>
+        <v>-5.540791157133192</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1262348402264249</v>
+        <v>0.1283173601802984</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.213445676039297</v>
+        <v>0.4162547314318349</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03509702855634805</v>
+        <v>0.04154277884281783</v>
       </c>
       <c r="H44" t="n">
-        <v>-11.52003484584436</v>
+        <v>4.729767037628193</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03424234053095822</v>
+        <v>0.03205172709402848</v>
       </c>
       <c r="H45" t="n">
-        <v>9.883681140983894</v>
+        <v>2.854001958011117</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06072410526357536</v>
+        <v>0.0625297954706884</v>
       </c>
       <c r="H46" t="n">
-        <v>7.25293113378531</v>
+        <v>10.44220113771262</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06450289874533285</v>
+        <v>0.06170374293006865</v>
       </c>
       <c r="H47" t="n">
-        <v>9.941526377327653</v>
+        <v>5.170524315650755</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04980872271283362</v>
+        <v>0.04445528198183851</v>
       </c>
       <c r="H48" t="n">
-        <v>1.119427447440452</v>
+        <v>-9.748887018542678</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04859931154256432</v>
+        <v>0.05131862660928519</v>
       </c>
       <c r="H49" t="n">
-        <v>6.652872794229138</v>
+        <v>12.62050391271533</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02462423404975705</v>
+        <v>0.02929800480279795</v>
       </c>
       <c r="H50" t="n">
-        <v>-7.030943484670467</v>
+        <v>10.61492750571839</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02856751209196979</v>
+        <v>0.03024472037892732</v>
       </c>
       <c r="H51" t="n">
-        <v>1.969039913071945</v>
+        <v>7.955676698407597</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08335252281083064</v>
+        <v>-0.08203549445597172</v>
       </c>
       <c r="H52" t="n">
-        <v>-4.108339520354922</v>
+        <v>5.623495049993994</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07692713497634739</v>
+        <v>-0.08241151936368532</v>
       </c>
       <c r="H53" t="n">
-        <v>-4.100252659222687</v>
+        <v>-2.736750658619901</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05040590150062726</v>
+        <v>0.05486635106409896</v>
       </c>
       <c r="H54" t="n">
-        <v>0.75799434841243</v>
+        <v>9.674131914210516</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.06076372975057512</v>
+        <v>0.05442158487578165</v>
       </c>
       <c r="H55" t="n">
-        <v>7.957126153002696</v>
+        <v>-3.310775556441291</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04487466120943039</v>
+        <v>0.05097621793781661</v>
       </c>
       <c r="H56" t="n">
-        <v>-9.219217226280527</v>
+        <v>3.124142723693939</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04171960801000439</v>
+        <v>0.04215395513469582</v>
       </c>
       <c r="H57" t="n">
-        <v>9.834752341637014</v>
+        <v>10.97825323117905</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.06155157696835034</v>
+        <v>0.0535991321761355</v>
       </c>
       <c r="H58" t="n">
-        <v>6.834312429434136</v>
+        <v>-6.968647841529603</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06143861242594306</v>
+        <v>0.061031896618933</v>
       </c>
       <c r="H59" t="n">
-        <v>7.761877357435582</v>
+        <v>7.048507423061183</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02033873822160153</v>
+        <v>0.02189470446886582</v>
       </c>
       <c r="H60" t="n">
-        <v>-25.93321712210308</v>
+        <v>-20.26691604945054</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03469564519426235</v>
+        <v>0.03473810853425006</v>
       </c>
       <c r="H61" t="n">
-        <v>29.95682151085028</v>
+        <v>30.11587319196584</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06113823136511969</v>
+        <v>0.06489112235944754</v>
       </c>
       <c r="H62" t="n">
-        <v>-2.096169646129016</v>
+        <v>3.913529932044643</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06828746784142788</v>
+        <v>0.06113028721643708</v>
       </c>
       <c r="H63" t="n">
-        <v>6.895138433894828</v>
+        <v>-4.308495818313278</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02473361088119769</v>
+        <v>0.02488332273580799</v>
       </c>
       <c r="H64" t="n">
-        <v>-10.83663902748619</v>
+        <v>-10.2969356983362</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03615943542127761</v>
+        <v>0.03489841065810598</v>
       </c>
       <c r="H65" t="n">
-        <v>2.066723974247453</v>
+        <v>-1.49275268593271</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08225325245224679</v>
+        <v>0.07381117535184126</v>
       </c>
       <c r="H66" t="n">
-        <v>5.88296104485265</v>
+        <v>-4.984355372559917</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08382064348238649</v>
+        <v>0.08420562091045028</v>
       </c>
       <c r="H67" t="n">
-        <v>6.275843849334548</v>
+        <v>6.7639551227707</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01683730870851876</v>
+        <v>-0.0216296105633652</v>
       </c>
       <c r="H68" t="n">
-        <v>-22.57175287578814</v>
+        <v>0.5338168413236078</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.009059261787090525</v>
+        <v>-0.01279102276884447</v>
       </c>
       <c r="H69" t="n">
-        <v>-52.6716784400995</v>
+        <v>33.17583121987436</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07109503890885009</v>
+        <v>0.07633135185111055</v>
       </c>
       <c r="H70" t="n">
-        <v>-1.237498427661049</v>
+        <v>6.036586700223745</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07917916289166142</v>
+        <v>0.07792875535015219</v>
       </c>
       <c r="H71" t="n">
-        <v>-0.3045477135603466</v>
+        <v>-1.878951140427929</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.143924729301075</v>
+        <v>-0.1355361960702551</v>
       </c>
       <c r="H72" t="n">
-        <v>-6.324303113432515</v>
+        <v>11.78411325217087</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1490922783501309</v>
+        <v>-0.1469157655986069</v>
       </c>
       <c r="H73" t="n">
-        <v>-2.602163676396148</v>
+        <v>4.024018886304042</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1459559502968711</v>
+        <v>0.1449383962768462</v>
       </c>
       <c r="H74" t="n">
-        <v>-2.967203492024818</v>
+        <v>-3.643682333484324</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1558983112210346</v>
+        <v>0.1521327215339489</v>
       </c>
       <c r="H75" t="n">
-        <v>3.623186187432736</v>
+        <v>1.12025720639251</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.009488548369428373</v>
+        <v>-0.005421420542721624</v>
       </c>
       <c r="H76" t="n">
-        <v>815.4750955926593</v>
+        <v>-423.0700520626725</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.002866665731056606</v>
+        <v>-0.003564192275308726</v>
       </c>
       <c r="H77" t="n">
-        <v>29.83747410158697</v>
+        <v>-61.42995579324317</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0860460095390574</v>
+        <v>0.08963188686374464</v>
       </c>
       <c r="H78" t="n">
-        <v>-4.348951718590103</v>
+        <v>-0.3627944644389623</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09376965422690758</v>
+        <v>0.0945267997282101</v>
       </c>
       <c r="H79" t="n">
-        <v>-3.231853862087292</v>
+        <v>-2.450496960200792</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.21593432876803</v>
+        <v>-0.2307771327044859</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.2305740110026309</v>
+        <v>-6.627335230460615</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2139129262147633</v>
+        <v>-0.2102747674148371</v>
       </c>
       <c r="H81" t="n">
-        <v>0.3749360904290169</v>
+        <v>1.332206920941838</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1755927437887581</v>
+        <v>0.1766910187055766</v>
       </c>
       <c r="H82" t="n">
-        <v>4.75789674771893</v>
+        <v>5.41312297093401</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1741798212576916</v>
+        <v>0.1852974508877285</v>
       </c>
       <c r="H83" t="n">
-        <v>-1.050458526365288</v>
+        <v>5.265338253207235</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1010050951008731</v>
+        <v>0.1091612763950627</v>
       </c>
       <c r="H84" t="n">
-        <v>-4.828622014790173</v>
+        <v>2.856485474985425</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1124353279837183</v>
+        <v>0.107052983348096</v>
       </c>
       <c r="H85" t="n">
-        <v>7.533101526376224</v>
+        <v>2.385429326441588</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 30/S&P500_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06854349825647522</v>
+        <v>0.06108550355870301</v>
       </c>
       <c r="H2" t="n">
-        <v>6.595883129145573</v>
+        <v>-5.002467573744219</v>
       </c>
       <c r="I2" t="n">
-        <v>-2.145003858990287</v>
+        <v>-4.389989509649465</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06685146085328561</v>
+        <v>0.06188942395223233</v>
       </c>
       <c r="H3" t="n">
-        <v>18.93787868357008</v>
+        <v>10.10973737703844</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01294739277674126</v>
+        <v>-0.01896204520231863</v>
       </c>
       <c r="H4" t="n">
-        <v>36.25619031462482</v>
+        <v>6.644293452391715</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00805072599712036</v>
+        <v>-0.008884569031835427</v>
       </c>
       <c r="H5" t="n">
-        <v>29.57315274768672</v>
+        <v>22.2787874868036</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01860918511944517</v>
+        <v>-0.01795737899452797</v>
       </c>
       <c r="H6" t="n">
-        <v>-66.24906637884965</v>
+        <v>-60.42601937104326</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.007200376581823696</v>
+        <v>-0.009858991866272688</v>
       </c>
       <c r="H7" t="n">
-        <v>-27.1312181143994</v>
+        <v>-74.07223512492286</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.006208695976173156</v>
+        <v>-0.01065108269748892</v>
       </c>
       <c r="H8" t="n">
-        <v>-9.131975639318677</v>
+        <v>-87.21704234440222</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004615173564844266</v>
+        <v>-0.00550713131900317</v>
       </c>
       <c r="H9" t="n">
-        <v>184.0169433930521</v>
+        <v>-0.2545914657072099</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05921775018514164</v>
+        <v>-0.06116487087508717</v>
       </c>
       <c r="H10" t="n">
-        <v>6.03601802054687</v>
+        <v>2.946417134835258</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06954880205389437</v>
+        <v>-0.06699325044482141</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.537641576057208</v>
+        <v>-4.549455778698159</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3777130478920371</v>
+        <v>-0.3925890600288665</v>
       </c>
       <c r="H12" t="n">
-        <v>4.280336388448042</v>
+        <v>0.5104722400808851</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3974577424205049</v>
+        <v>-0.4049963313122755</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.361459035477968</v>
+        <v>-3.283983841473785</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02013216919123732</v>
+        <v>-0.0398388850309683</v>
       </c>
       <c r="H14" t="n">
-        <v>-145.6861333888471</v>
+        <v>-386.1801790361301</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0140782835910078</v>
+        <v>-0.01205533760053082</v>
       </c>
       <c r="H15" t="n">
-        <v>68.93491822385735</v>
+        <v>73.39874239792266</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1421372740448495</v>
+        <v>0.1355250622491215</v>
       </c>
       <c r="H16" t="n">
-        <v>3.939772229358073</v>
+        <v>-0.8954955960497976</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1419450036003737</v>
+        <v>0.1505074642154252</v>
       </c>
       <c r="H17" t="n">
-        <v>1.774111820730376</v>
+        <v>7.913368589149361</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1214636032858463</v>
+        <v>0.1263188586979595</v>
       </c>
       <c r="H18" t="n">
-        <v>3.225506305601552</v>
+        <v>7.351731648834058</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1280493617729934</v>
+        <v>0.1279803735820699</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.4814603200043607</v>
+        <v>-0.5350771746361078</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08583424832767612</v>
+        <v>0.09025591333353654</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.268604691598187</v>
+        <v>1.7144158851114</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08750101757515669</v>
+        <v>0.08767414448794696</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4707629821675995</v>
+        <v>0.6695514477513889</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.09776778619565953</v>
+        <v>-0.09406813257922748</v>
       </c>
       <c r="H22" t="n">
-        <v>-4.583302872704445</v>
+        <v>-0.6257416989547001</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.09996788445127837</v>
+        <v>-0.1046261089369834</v>
       </c>
       <c r="H23" t="n">
-        <v>1.456092867198455</v>
+        <v>-3.135778248637576</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1622172585708786</v>
+        <v>0.1589331470242742</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6991058805038493</v>
+        <v>-1.339561886837346</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1686872436201788</v>
+        <v>0.1705825295573944</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.118719865288308</v>
+        <v>-0.007739001108871615</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08861000624943989</v>
+        <v>0.085840162414438</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.254499576005931</v>
+        <v>-5.309908137725635</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08724696713513973</v>
+        <v>0.08451360963456629</v>
       </c>
       <c r="H27" t="n">
-        <v>1.495107895281908</v>
+        <v>-1.684629160876963</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.128692396270753</v>
+        <v>-0.1397098143927103</v>
       </c>
       <c r="H28" t="n">
-        <v>6.501025662900731</v>
+        <v>-1.503466631101927</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1427165399519818</v>
+        <v>-0.1374400556852353</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.086394403784631</v>
+        <v>1.687921131763558</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04987456996619302</v>
+        <v>0.05156709513859661</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.115530755665511</v>
+        <v>-0.8616304624179104</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04719338620083045</v>
+        <v>0.05124122925274138</v>
       </c>
       <c r="H31" t="n">
-        <v>7.699747043314642</v>
+        <v>16.93730568991531</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1126956322543052</v>
+        <v>0.117289067406854</v>
       </c>
       <c r="H32" t="n">
-        <v>3.672084834344359</v>
+        <v>7.897723302226564</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1189988281279437</v>
+        <v>0.1172584743721433</v>
       </c>
       <c r="H33" t="n">
-        <v>-4.106818491361187</v>
+        <v>-5.509252962520649</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.008899927039406726</v>
+        <v>-0.01219393778703231</v>
       </c>
       <c r="H34" t="n">
-        <v>43.00907706590569</v>
+        <v>21.91579036470122</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01336337996427005</v>
+        <v>-0.01427233760097591</v>
       </c>
       <c r="H35" t="n">
-        <v>20.15803492658402</v>
+        <v>14.72730078019862</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0332671601989017</v>
+        <v>0.03691548951543461</v>
       </c>
       <c r="H36" t="n">
-        <v>-9.518747614284074</v>
+        <v>0.4041133603752248</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03917196530920936</v>
+        <v>0.04122427056832208</v>
       </c>
       <c r="H37" t="n">
-        <v>9.769520790917436</v>
+        <v>15.52058696876169</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1056205784144961</v>
+        <v>0.09861961925524829</v>
       </c>
       <c r="H38" t="n">
-        <v>5.30232385932141</v>
+        <v>-1.677540100709837</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09849587206358534</v>
+        <v>0.1095194060495277</v>
       </c>
       <c r="H39" t="n">
-        <v>1.12510978077343</v>
+        <v>12.44290474156998</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03085941075929714</v>
+        <v>0.02675170681104557</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.395395724047278</v>
+        <v>-20.58890769993582</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03739420001845033</v>
+        <v>0.03100219187421486</v>
       </c>
       <c r="H41" t="n">
-        <v>16.06356234946749</v>
+        <v>-3.775857545081227</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1142063130845872</v>
+        <v>0.1186482841517387</v>
       </c>
       <c r="H42" t="n">
-        <v>-5.540791157133192</v>
+        <v>-1.866869275115442</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1283173601802984</v>
+        <v>0.1293947311683842</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4162547314318349</v>
+        <v>1.259364030344056</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04154277884281783</v>
+        <v>0.03518764850840481</v>
       </c>
       <c r="H44" t="n">
-        <v>4.729767037628193</v>
+        <v>-11.29158102710069</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03205172709402848</v>
+        <v>0.03135694861267752</v>
       </c>
       <c r="H45" t="n">
-        <v>2.854001958011117</v>
+        <v>0.624457600803317</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0625297954706884</v>
+        <v>0.05699436226728728</v>
       </c>
       <c r="H46" t="n">
-        <v>10.44220113771262</v>
+        <v>0.6653352031202864</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06170374293006865</v>
+        <v>0.06277282266496996</v>
       </c>
       <c r="H47" t="n">
-        <v>5.170524315650755</v>
+        <v>6.99270998730823</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04445528198183851</v>
+        <v>0.04280702334554923</v>
       </c>
       <c r="H48" t="n">
-        <v>-9.748887018542678</v>
+        <v>-13.09510752991362</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.05131862660928519</v>
+        <v>0.04932204671811011</v>
       </c>
       <c r="H49" t="n">
-        <v>12.62050391271533</v>
+        <v>8.238940174502416</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02929800480279795</v>
+        <v>0.02790690510487296</v>
       </c>
       <c r="H50" t="n">
-        <v>10.61492750571839</v>
+        <v>5.362815859381839</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03024472037892732</v>
+        <v>0.02352371427149231</v>
       </c>
       <c r="H51" t="n">
-        <v>7.955676698407597</v>
+        <v>-16.03432067408623</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08203549445597172</v>
+        <v>-0.08599072996590115</v>
       </c>
       <c r="H52" t="n">
-        <v>5.623495049993994</v>
+        <v>1.073253643432666</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08241151936368532</v>
+        <v>-0.08084153278083568</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.736750658619901</v>
+        <v>-0.7795567936724608</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05486635106409896</v>
+        <v>0.04767648865149864</v>
       </c>
       <c r="H54" t="n">
-        <v>9.674131914210516</v>
+        <v>-4.697917682514405</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05442158487578165</v>
+        <v>0.0494222770045336</v>
       </c>
       <c r="H55" t="n">
-        <v>-3.310775556441291</v>
+        <v>-12.1928983746002</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05097621793781661</v>
+        <v>0.0492426560675418</v>
       </c>
       <c r="H56" t="n">
-        <v>3.124142723693939</v>
+        <v>-0.3828275648560823</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04215395513469582</v>
+        <v>0.03915236443594951</v>
       </c>
       <c r="H57" t="n">
-        <v>10.97825323117905</v>
+        <v>3.075998470091529</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0535991321761355</v>
+        <v>0.0487183509940922</v>
       </c>
       <c r="H58" t="n">
-        <v>-6.968647841529603</v>
+        <v>-15.440159497035</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.061031896618933</v>
+        <v>0.06288526004518866</v>
       </c>
       <c r="H59" t="n">
-        <v>7.048507423061183</v>
+        <v>10.29926316692926</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02189470446886582</v>
+        <v>0.02169850612478036</v>
       </c>
       <c r="H60" t="n">
-        <v>-20.26691604945054</v>
+        <v>-20.98140384087836</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03473810853425006</v>
+        <v>0.02728983509047989</v>
       </c>
       <c r="H61" t="n">
-        <v>30.11587319196584</v>
+        <v>2.2174456781833</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06489112235944754</v>
+        <v>0.0665901919504634</v>
       </c>
       <c r="H62" t="n">
-        <v>3.913529932044643</v>
+        <v>6.634338455353355</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06113028721643708</v>
+        <v>0.06630204041330832</v>
       </c>
       <c r="H63" t="n">
-        <v>-4.308495818313278</v>
+        <v>3.787210339795307</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02488332273580799</v>
+        <v>0.02374466316035677</v>
       </c>
       <c r="H64" t="n">
-        <v>-10.2969356983362</v>
+        <v>-14.4017433319012</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03489841065810598</v>
+        <v>0.03431252204347111</v>
       </c>
       <c r="H65" t="n">
-        <v>-1.49275268593271</v>
+        <v>-3.146532143849884</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07381117535184126</v>
+        <v>0.07370284307011246</v>
       </c>
       <c r="H66" t="n">
-        <v>-4.984355372559917</v>
+        <v>-5.123809344581868</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.08420562091045028</v>
+        <v>0.08439601008840614</v>
       </c>
       <c r="H67" t="n">
-        <v>6.7639551227707</v>
+        <v>7.005348766465308</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0216296105633652</v>
+        <v>-0.01784624477603438</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5338168413236078</v>
+        <v>17.93204753329445</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01279102276884447</v>
+        <v>-0.01665821328705916</v>
       </c>
       <c r="H69" t="n">
-        <v>33.17583121987436</v>
+        <v>12.97245917025791</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07633135185111055</v>
+        <v>0.07058759711031934</v>
       </c>
       <c r="H70" t="n">
-        <v>6.036586700223745</v>
+        <v>-1.942417113893392</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07792875535015219</v>
+        <v>0.07241727961440149</v>
       </c>
       <c r="H71" t="n">
-        <v>-1.878951140427929</v>
+        <v>-8.81851763967504</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1355361960702551</v>
+        <v>-0.1499125893100363</v>
       </c>
       <c r="H72" t="n">
-        <v>11.78411325217087</v>
+        <v>2.427009285453315</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1469157655986069</v>
+        <v>-0.1420974321188938</v>
       </c>
       <c r="H73" t="n">
-        <v>4.024018886304042</v>
+        <v>7.171702058114819</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1449383962768462</v>
+        <v>0.154069244349664</v>
       </c>
       <c r="H74" t="n">
-        <v>-3.643682333484324</v>
+        <v>2.426585587712979</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1521327215339489</v>
+        <v>0.1512483879362196</v>
       </c>
       <c r="H75" t="n">
-        <v>1.12025720639251</v>
+        <v>0.5324543987060277</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.005421420542721624</v>
+        <v>-0.001767336318942978</v>
       </c>
       <c r="H76" t="n">
-        <v>-423.0700520626725</v>
+        <v>-70.51632373416177</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.003564192275308726</v>
+        <v>0.001564786624721301</v>
       </c>
       <c r="H77" t="n">
-        <v>-61.42995579324317</v>
+        <v>170.8725613386662</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08963188686374464</v>
+        <v>0.09266024926201422</v>
       </c>
       <c r="H78" t="n">
-        <v>-0.3627944644389623</v>
+        <v>3.00361426877494</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0945267997282101</v>
+        <v>0.09491513019667207</v>
       </c>
       <c r="H79" t="n">
-        <v>-2.450496960200792</v>
+        <v>-2.049748766856716</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2307771327044859</v>
+        <v>-0.2217780217350827</v>
       </c>
       <c r="H80" t="n">
-        <v>-6.627335230460615</v>
+        <v>-2.469422308735426</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2102747674148371</v>
+        <v>-0.2159300991202397</v>
       </c>
       <c r="H81" t="n">
-        <v>1.332206920941838</v>
+        <v>-1.321459543000836</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1766910187055766</v>
+        <v>0.1714835460651409</v>
       </c>
       <c r="H82" t="n">
-        <v>5.41312297093401</v>
+        <v>2.306366567380052</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1852974508877285</v>
+        <v>0.1724087587243887</v>
       </c>
       <c r="H83" t="n">
-        <v>5.265338253207235</v>
+        <v>-2.056578663164524</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1091612763950627</v>
+        <v>0.1066920210508802</v>
       </c>
       <c r="H84" t="n">
-        <v>2.856485474985425</v>
+        <v>0.5298460765620355</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.107052983348096</v>
+        <v>0.1106277610172464</v>
       </c>
       <c r="H85" t="n">
-        <v>2.385429326441588</v>
+        <v>5.804345221689731</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>